--- a/app/rep/triangulo Norte.xlsx
+++ b/app/rep/triangulo Norte.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t xml:space="preserve">Balanza comercial Relativa </t>
   </si>
@@ -39,6 +39,42 @@
   </si>
   <si>
     <t>% Relación</t>
+  </si>
+  <si>
+    <t>2014 Enero</t>
+  </si>
+  <si>
+    <t>2014 Febrero</t>
+  </si>
+  <si>
+    <t>2014 Marzo</t>
+  </si>
+  <si>
+    <t>2014 Abril</t>
+  </si>
+  <si>
+    <t>2014 Mayo</t>
+  </si>
+  <si>
+    <t>2014 Junio</t>
+  </si>
+  <si>
+    <t>2014 Julio</t>
+  </si>
+  <si>
+    <t>2014 Agosto</t>
+  </si>
+  <si>
+    <t>2014 Septiembre</t>
+  </si>
+  <si>
+    <t>2014 Octubre</t>
+  </si>
+  <si>
+    <t>2014 Noviembre</t>
+  </si>
+  <si>
+    <t>2014 Diciembre</t>
   </si>
 </sst>
 </file>
@@ -158,224 +194,6 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr b="0" i="0" u="none" strike="noStrike">
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Test %age-Stacked Area Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:areaChart>
-        <c:grouping val="percentStacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$A$8:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2014</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Worksheet!$A$8:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2014</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$D$8:$D$10</c:f>
-              <c:numCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.91935000002664</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.73641882850648</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95149639624762</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:axId val="75091328"/>
-        <c:axId val="75089408"/>
-      </c:areaChart>
-      <c:catAx>
-        <c:axId val="75091328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75089408"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="75089408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:t>Value ($k)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75089408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="tr"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr name="Chart 1" id="1025"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D8" sqref="D8"/>
@@ -677,7 +495,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
@@ -730,45 +548,171 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4">
-        <v>2012</v>
+      <c r="A8" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="5">
-        <v>756.77</v>
+        <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>18010</v>
+        <v>1600</v>
       </c>
       <c r="D8" s="5">
-        <v>0.91935000002664</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4">
-        <v>2013</v>
+      <c r="A9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="5">
-        <v>2706.52</v>
+        <v>0</v>
       </c>
       <c r="C9" s="5">
-        <v>17830</v>
+        <v>1400</v>
       </c>
       <c r="D9" s="5">
-        <v>0.73641882850648</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4">
-        <v>2014</v>
+      <c r="A10" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="5">
-        <v>3684.69</v>
+        <v>0</v>
       </c>
       <c r="C10" s="5">
-        <v>148250</v>
+        <v>0</v>
       </c>
       <c r="D10" s="5">
-        <v>0.95149639624762</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2978.47</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1150</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-0.44289288767994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5">
+        <v>299.5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-0.76435935198822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>800</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>210</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5">
+        <v>406.72</v>
+      </c>
+      <c r="C16" s="5">
+        <v>18250</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.95639962437127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>124800</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -790,6 +734,5 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>